--- a/Report Data Siswa Baru.Xlsx
+++ b/Report Data Siswa Baru.Xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pemweb\praktek9\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB80E9E-FCC8-4E4D-A956-D6C4394BED00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -77,14 +82,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -125,15 +125,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,19 +436,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +470,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -461,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -477,8 +496,8 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
-        <v>3578106503030001</v>
+      <c r="F2" s="4">
+        <v>3578106503030000</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -487,7 +506,7 @@
         <v>21082010024</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -503,8 +522,8 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
-        <v>3578106503030005</v>
+      <c r="F3" s="4">
+        <v>3578106503030000</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -513,7 +532,7 @@
         <v>21082010067</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -529,8 +548,8 @@
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1">
-        <v>3578106503030008</v>
+      <c r="F4" s="4">
+        <v>3578106503030010</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -540,17 +559,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>